--- a/PCB/Production/PCB_BOM.xlsx
+++ b/PCB/Production/PCB_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Comment</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>D_SOD-123</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
   </si>
 </sst>
 </file>
@@ -1263,9 +1272,15 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>8</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
     </row>
